--- a/Docs/03_詳細設計/0302_画面処理/画面処理（お小遣い情報登録画面_入金）.xlsx
+++ b/Docs/03_詳細設計/0302_画面処理/画面処理（お小遣い情報登録画面_入金）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="処理フロー（お小遣い情報登録画面_入金）" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -54,13 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（１）DB接続</t>
-    <rPh sb="5" eb="7">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入金日</t>
     <rPh sb="0" eb="2">
       <t>ニュウキン</t>
@@ -95,16 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（３）画面表示</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -146,13 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（２）データ登録</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ａ．登録対象データ</t>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
@@ -286,6 +262,142 @@
     <t>入金</t>
     <rPh sb="0" eb="2">
       <t>ニュウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金時間</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reciveTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（１）入力チェック</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ａ．入力項目チェック</t>
+    <rPh sb="2" eb="6">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金日</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウキンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須（未入力不可）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実在日</t>
+    <rPh sb="0" eb="2">
+      <t>ジツザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金時間</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実在時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジツザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0以上（マイナス不可）</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（２）DB接続</t>
+    <rPh sb="5" eb="7">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（３）データ登録</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（４）画面表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -294,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +446,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -549,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -591,6 +710,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
@@ -662,8 +783,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="登録対象項目" displayName="登録対象項目" ref="B22:E28" totalsRowShown="0">
-  <autoFilter ref="B22:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="呼出対象処理" displayName="呼出対象処理" ref="B10:D15" totalsRowShown="0">
+  <autoFilter ref="B10:D15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="項目名"/>
+    <tableColumn id="3" name="チェック内容"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="登録対象項目6" displayName="登録対象項目6" ref="B42:E49" totalsRowShown="0">
+  <autoFilter ref="B42:E49"/>
   <tableColumns count="4">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="項目名"/>
@@ -674,20 +807,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="登録対象データ" displayName="登録対象データ" ref="B17:C18" totalsRowShown="0">
-  <autoFilter ref="B17:C18"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="No"/>
-    <tableColumn id="2" name="データ名"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表示対象画面" displayName="表示対象画面" ref="B35:C36" totalsRowShown="0">
-  <autoFilter ref="B35:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表示対象画面8" displayName="表示対象画面8" ref="B55:C56" totalsRowShown="0">
+  <autoFilter ref="B55:C56"/>
   <tableColumns count="2">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="画面名"/>
@@ -697,8 +819,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="呼出対象処理" displayName="呼出対象処理" ref="B10:C11" totalsRowShown="0">
-  <autoFilter ref="B10:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="登録対象データ710" displayName="登録対象データ710" ref="B29:C30" totalsRowShown="0">
+  <autoFilter ref="B29:C30"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="データ名"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="呼出対象処理911" displayName="呼出対象処理911" ref="B22:C23" totalsRowShown="0">
+  <autoFilter ref="B22:C23"/>
   <tableColumns count="2">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="処理名"/>
@@ -996,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -1040,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -1634,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1708,7 +1841,7 @@
     <row r="4" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1735,7 +1868,7 @@
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="14" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14"/>
       <c r="E6" s="3"/>
@@ -1762,7 +1895,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1789,12 +1922,14 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1810,7 +1945,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1823,6 +1961,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1832,13 +1979,17 @@
       <c r="K12" s="3"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="E13" s="3"/>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1847,9 +1998,17 @@
       <c r="K13" s="3"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="E14" s="3"/>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1858,12 +2017,17 @@
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="C15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1874,7 +2038,6 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1885,13 +2048,6 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1900,15 +2056,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="B18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1917,9 +2070,8 @@
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1930,10 +2082,10 @@
     </row>
     <row r="20" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>30</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1944,7 +2096,6 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1955,17 +2106,11 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1977,17 +2122,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
+      <c r="C23" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1999,18 +2138,6 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2019,20 +2146,12 @@
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
+      <c r="B25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="14"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2041,20 +2160,8 @@
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2063,19 +2170,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
+      <c r="C27" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2087,18 +2185,6 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>24</v>
-      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2109,6 +2195,12 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2119,6 +2211,12 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2127,14 +2225,8 @@
       <c r="K30" s="3"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
-      <c r="B31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2143,12 +2235,8 @@
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2157,14 +2245,8 @@
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -2175,8 +2257,6 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2187,14 +2267,6 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2205,14 +2277,6 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2249,6 +2313,563 @@
       <c r="K38" s="7"/>
       <c r="L38" s="8"/>
     </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="27"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="C40" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="5"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="5"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" s="5"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D2"/>
@@ -2258,11 +2879,12 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>